--- a/Master/MasterData/QuestStage.xlsx
+++ b/Master/MasterData/QuestStage.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">KILL_ANPAN</t>
   </si>
   <si>
-    <t xml:space="preserve">$SERVER_ONLY</t>
+    <t xml:space="preserve">COLLECT_ITEM</t>
   </si>
   <si>
     <t xml:space="preserve">Id</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">AreaId</t>
+    <t xml:space="preserve">TargetId</t>
   </si>
   <si>
     <t xml:space="preserve">Count</t>
@@ -260,10 +260,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:F63"/>
+  <dimension ref="A3:F62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -281,9 +281,7 @@
       <c r="C3" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -406,7 +404,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,34 +429,24 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
@@ -545,11 +533,11 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5"/>
@@ -789,21 +777,14 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="5"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C8:C63" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D8:D62" type="none">
       <formula1>Sheet1!$B$3:$C$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D8:D63" type="none">
-      <formula1>Sheet1!$B$3:$C$3</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C8:C62" type="list">
+      <formula1>Sheet1!$B$3:$D$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/Master/MasterData/QuestStage.xlsx
+++ b/Master/MasterData/QuestStage.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">NPC</t>
   </si>
   <si>
-    <t xml:space="preserve">KILL_ANPAN</t>
+    <t xml:space="preserve">KILL_ANPAN_IN_AREA</t>
   </si>
   <si>
     <t xml:space="preserve">COLLECT_ITEM</t>
@@ -263,12 +263,14 @@
   <dimension ref="A3:F62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Master/MasterData/QuestStage.xlsx
+++ b/Master/MasterData/QuestStage.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -260,10 +260,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:F62"/>
+  <dimension ref="A3:F63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,7 +406,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,24 +431,34 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E15" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F14" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
@@ -535,11 +545,11 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="5"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5"/>
@@ -779,13 +789,20 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="5"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D8:D62" type="none">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D8:D63" type="none">
       <formula1>Sheet1!$B$3:$C$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C8:C62" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C8:C63" type="list">
       <formula1>Sheet1!$B$3:$D$3</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Master/MasterData/QuestStage.xlsx
+++ b/Master/MasterData/QuestStage.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -263,7 +263,7 @@
   <dimension ref="A3:F63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -428,37 +428,27 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="n">
-        <v>7</v>
+        <v>1001</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>

--- a/Master/MasterData/QuestStage.xlsx
+++ b/Master/MasterData/QuestStage.xlsx
@@ -263,7 +263,7 @@
   <dimension ref="A3:F63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -332,7 +332,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>0</v>
@@ -349,7 +349,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>0</v>
@@ -366,7 +366,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>0</v>
@@ -383,7 +383,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>0</v>
@@ -417,7 +417,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>0</v>
